--- a/公务员/江西省/2022/附件：宜春市2022年度考试录用公务员面试递补人员名单（71人）2.xlsx
+++ b/公务员/江西省/2022/附件：宜春市2022年度考试录用公务员面试递补人员名单（71人）2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16560"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AllPages" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="AllPages"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,11 +17,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="180">
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>宜春市</t>
     </r>
@@ -31,7 +33,8 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2022</t>
     </r>
@@ -40,7 +43,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>年度考试录用公务员面试递补人员名单（</t>
     </r>
@@ -49,7 +52,8 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>71</t>
     </r>
@@ -58,7 +62,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>人）</t>
     </r>
@@ -94,8 +98,7 @@
     <t>李文琪</t>
   </si>
   <si>
-    <t>宜春市委统一战线
-工作部</t>
+    <t>宜春市委统一战线&amp;#10;工作部</t>
   </si>
   <si>
     <t>综合岗</t>
@@ -123,20 +126,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>业务岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -146,20 +153,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>业务岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -172,20 +183,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>技术岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -230,35 +245,37 @@
     <t>樟树市人民检察院</t>
   </si>
   <si>
-    <t>检察官助理岗
-（一）</t>
+    <t>检察官助理岗&amp;#10;（一）</t>
   </si>
   <si>
     <t>邹志赛</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>樟树市乡镇</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
-    <t>乡镇机关
-公务员</t>
+    <t>乡镇机关&amp;#10;公务员</t>
   </si>
   <si>
     <t>黄小云</t>
@@ -268,20 +285,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>樟树市乡镇</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -291,20 +312,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>樟树市乡镇</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>8</t>
     </r>
@@ -314,20 +339,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>樟树市乡镇</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>9</t>
     </r>
@@ -342,8 +371,7 @@
     <t>罗静</t>
   </si>
   <si>
-    <t>丰城市市场监督管理局
-河西分局</t>
+    <t>丰城市市场监督管理局&amp;#10;河西分局</t>
   </si>
   <si>
     <t>甘海琴</t>
@@ -353,20 +381,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>综合岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -388,21 +420,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">法官助理岗（一）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>法官助理岗（一）&amp;#10;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -415,21 +450,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">法官助理岗（一）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>法官助理岗（一）&amp;#10;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -442,20 +480,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>综合岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -468,20 +510,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>综合岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
@@ -497,21 +543,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乡镇机关
-公务员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>乡镇机关&amp;#10;公务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -536,21 +585,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乡镇机关
-公务员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>乡镇机关&amp;#10;公务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -572,21 +624,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乡镇机关
-公务员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>乡镇机关&amp;#10;公务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -595,22 +650,19 @@
     <t>钟颖</t>
   </si>
   <si>
-    <t>宜春市袁州区
-人民法院</t>
+    <t>宜春市袁州区&amp;#10;人民法院</t>
   </si>
   <si>
     <t>范俊秀</t>
   </si>
   <si>
-    <t>宜春市袁州区
-人民检察院</t>
+    <t>宜春市袁州区&amp;#10;人民检察院</t>
   </si>
   <si>
     <t>李忆晨</t>
   </si>
   <si>
-    <t>宜春市袁州区市场监督
-管理局</t>
+    <t>宜春市袁州区市场监督&amp;#10;管理局</t>
   </si>
   <si>
     <t>综合岗（三）</t>
@@ -631,8 +683,7 @@
     <t>宋晴</t>
   </si>
   <si>
-    <t>宜春市袁州区寨下镇
-人民政府</t>
+    <t>宜春市袁州区寨下镇&amp;#10;人民政府</t>
   </si>
   <si>
     <t>高静怡</t>
@@ -641,8 +692,7 @@
     <t>奉新县乡镇机关</t>
   </si>
   <si>
-    <t>乡镇机关
-公务员（一）</t>
+    <t>乡镇机关&amp;#10;公务员（一）</t>
   </si>
   <si>
     <t>熊靖</t>
@@ -654,15 +704,13 @@
     <t>周慧敏</t>
   </si>
   <si>
-    <t>乡镇机关
-公务员（三）</t>
+    <t>乡镇机关&amp;#10;公务员（三）</t>
   </si>
   <si>
     <t>杨娜</t>
   </si>
   <si>
-    <t>乡镇机关
-公务员（四）</t>
+    <t>乡镇机关&amp;#10;公务员（四）</t>
   </si>
   <si>
     <t>贾英杰</t>
@@ -671,8 +719,7 @@
     <t>魏斌</t>
   </si>
   <si>
-    <t>乡镇机关
-公务员（五）</t>
+    <t>乡镇机关&amp;#10;公务员（五）</t>
   </si>
   <si>
     <t>彭瑶</t>
@@ -681,8 +728,7 @@
     <t>游世佳</t>
   </si>
   <si>
-    <t>万载县市场监督管理局康
-乐分局</t>
+    <t>万载县市场监督管理局康&amp;#10;乐分局</t>
   </si>
   <si>
     <t>一级科员</t>
@@ -691,25 +737,28 @@
     <t>汤小平</t>
   </si>
   <si>
-    <t>万载县高村镇
-人民政府</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+    <t>万载县高村镇&amp;#10;人民政府</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>一级科员</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -737,20 +786,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>执法勤务职位</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -778,38 +831,43 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>检察官助理岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>一</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -818,8 +876,7 @@
     <t>饶颖</t>
   </si>
   <si>
-    <t>宜丰县花桥乡
-人民政府</t>
+    <t>宜丰县花桥乡&amp;#10;人民政府</t>
   </si>
   <si>
     <t>综合管理岗（二）</t>
@@ -831,8 +888,7 @@
     <t>134.20</t>
   </si>
   <si>
-    <t>宜丰县石市镇
-人民政府</t>
+    <t>宜丰县石市镇&amp;#10;人民政府</t>
   </si>
   <si>
     <t>综合管理岗（一）</t>
@@ -841,15 +897,13 @@
     <t>文志君</t>
   </si>
   <si>
-    <t>宜丰县桥西乡
-人民政府</t>
+    <t>宜丰县桥西乡&amp;#10;人民政府</t>
   </si>
   <si>
     <t>钟朋</t>
   </si>
   <si>
-    <t>铜鼓县纪律检查
-委员会机关</t>
+    <t>铜鼓县纪律检查&amp;#10;委员会机关</t>
   </si>
   <si>
     <t>钟应财</t>
@@ -883,20 +937,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>宣传岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -909,21 +967,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自然资源
-管理岗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <family val="2"/>
+      </rPr>
+      <t>自然资源&amp;#10;管理岗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -935,8 +996,7 @@
     <t>106.90</t>
   </si>
   <si>
-    <t>高安市市场监督管理局新
-街分局</t>
+    <t>高安市市场监督管理局新&amp;#10;街分局</t>
   </si>
   <si>
     <t>综合监管岗</t>
@@ -945,32 +1005,34 @@
     <t>张金鹏</t>
   </si>
   <si>
-    <t>高安市市场监督管理局工
-业园分局</t>
+    <t>高安市市场监督管理局工&amp;#10;业园分局</t>
   </si>
   <si>
     <t>汪淑芬</t>
   </si>
   <si>
-    <t>高安市荷岭镇
-人民政府</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+    <t>高安市荷岭镇&amp;#10;人民政府</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>综合管理岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -979,8 +1041,7 @@
     <t>刘晓娇</t>
   </si>
   <si>
-    <t>高安市村前镇
-人民政府</t>
+    <t>高安市村前镇&amp;#10;人民政府</t>
   </si>
   <si>
     <t>综合管理岗</t>
@@ -995,25 +1056,28 @@
     <t>熊玉婷</t>
   </si>
   <si>
-    <t>宜春市综合行政
-执法支队</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+    <t>宜春市综合行政&amp;#10;执法支队</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>业务岗</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1025,413 +1089,75 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Source Han Sans CN"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="Source Han Sans CN"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1441,31 +1167,59 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -1474,404 +1228,134 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1898,82 +1382,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1985,1905 +1469,1944 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05357142857143" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.0714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="28" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="28" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="4:7">
-      <c r="D1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="55.5" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="41" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="45.75">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" ht="34" spans="1:8">
-      <c r="A3">
+      <c r="H2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="13">
         <v>220090201001</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>136221506425</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>129.83</v>
       </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" ht="51" spans="1:8">
-      <c r="A4">
+      <c r="H3" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="53.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="13">
         <v>220020101007</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>136221309918</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>131.75</v>
       </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" ht="51" spans="1:8">
-      <c r="A5">
+      <c r="H4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13">
         <v>220020101016</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>136221400527</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>127.86</v>
       </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" ht="34" spans="1:8">
-      <c r="A6">
+      <c r="H5" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13">
         <v>220020101024</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>136221305002</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>128.47</v>
       </c>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" ht="34" spans="1:8">
-      <c r="A7">
+      <c r="H6" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <v>220020101027</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>136221305123</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>132.74</v>
       </c>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" ht="34" spans="1:8">
-      <c r="A8">
+      <c r="H7" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="13">
         <v>220020101029</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="13">
         <v>136010500711</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>123.49</v>
       </c>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" ht="51" spans="1:8">
-      <c r="A9">
+      <c r="H8" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <v>220020101060</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <v>136221400901</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>114.17</v>
       </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" ht="34" spans="1:8">
-      <c r="A10">
+      <c r="H9" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="13">
         <v>220020101063</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="13">
         <v>136221311129</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>130.36</v>
       </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" ht="51" spans="1:8">
-      <c r="A11">
+      <c r="H10" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="13">
         <v>220020101096</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="13">
         <v>136242100919</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>123.93</v>
       </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" ht="34" spans="1:8">
-      <c r="A12">
+      <c r="H11" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="13">
         <v>220020102110</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="13">
         <v>136041301419</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" ht="34" spans="1:8">
-      <c r="A13">
+      <c r="H12" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="13">
         <v>220020102112</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="13">
         <v>136073000817</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>204.38</v>
       </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" ht="51" spans="1:8">
-      <c r="A14">
+      <c r="H13" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="53.25">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="13">
         <v>220040201005</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="13">
         <v>136015605507</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>107.62</v>
       </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" ht="34" spans="1:8">
-      <c r="A15">
+      <c r="H14" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="13">
         <v>220040201007</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="13">
         <v>136050102418</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>113.55</v>
       </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" ht="34" spans="1:8">
-      <c r="A16">
+      <c r="H15" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="13">
         <v>220040201007</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="13">
         <v>136017100607</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>112.87</v>
       </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" ht="34" spans="1:8">
-      <c r="A17">
+      <c r="H16" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="37.5">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="13">
         <v>220040201009</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="13">
         <v>136212003629</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>129.88</v>
       </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" ht="34" spans="1:8">
-      <c r="A18">
+      <c r="H17" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="18">
         <v>220040201014</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="18">
         <v>136221505520</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="19">
         <v>136.96</v>
       </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" ht="34" spans="1:8">
-      <c r="A19">
+      <c r="H18" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="13">
         <v>220040201015</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="13">
         <v>136015900409</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>111.29</v>
       </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" ht="51" spans="1:8">
-      <c r="A20">
+      <c r="H19" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="13">
         <v>220120201004</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="13">
         <v>136079801425</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>127.49</v>
       </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" ht="68" spans="1:8">
-      <c r="A21">
+      <c r="H20" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="53.25">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="13">
         <v>220120201022</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="13">
         <v>136016005210</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>114.28</v>
       </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" ht="34" spans="1:8">
-      <c r="A22">
+      <c r="H21" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="37.5">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="13">
         <v>220120201026</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="13">
         <v>136019702616</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>137.27</v>
       </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" ht="34" spans="1:8">
-      <c r="A23">
+      <c r="H22" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="37.5">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="13">
         <v>220120201035</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="13">
         <v>136221401501</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" ht="47" spans="1:8">
-      <c r="A24">
+      <c r="H23" s="20">
+        <v>2222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="51">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="13">
         <v>220120201043</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="13">
         <v>136018005819</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>125.97</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" ht="47" spans="1:8">
-      <c r="A25">
+      <c r="H24" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="51">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="13">
         <v>220120201043</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="13">
         <v>136221500623</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>124.73</v>
       </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" ht="47" spans="1:8">
-      <c r="A26">
+      <c r="H25" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="51">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="13">
         <v>220120201044</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="13">
         <v>136018405019</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>132.74</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" ht="34" spans="1:8">
-      <c r="A27">
+      <c r="H26" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="13">
         <v>220120201051</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="13">
         <v>136019200316</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>132.07</v>
       </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" ht="34" spans="1:8">
-      <c r="A28">
+      <c r="H27" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="13">
         <v>220120201056</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="13">
         <v>136251306830</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" ht="34" spans="1:8">
-      <c r="A29">
+      <c r="H28" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="13">
         <v>220120201068</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="13">
         <v>136221507204</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" ht="34" spans="1:8">
-      <c r="A30">
+      <c r="H29" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="13">
         <v>220120201072</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="13">
         <v>136221407524</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" ht="34" spans="1:8">
-      <c r="A31">
+      <c r="H30" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="13">
         <v>220120201077</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="13">
         <v>136015401408</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>119.12</v>
       </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" ht="34" spans="1:8">
-      <c r="A32">
+      <c r="H31" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="13">
         <v>220120201079</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="13">
         <v>136015605617</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>122.77</v>
       </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" ht="34" spans="1:8">
-      <c r="A33">
+      <c r="H32" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="13">
         <v>220120201085</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="13">
         <v>136251509114</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>110.55</v>
       </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" ht="34" spans="1:8">
-      <c r="A34">
+      <c r="H33" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="13">
         <v>220120602071</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="13">
         <v>136013006027</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>151.39</v>
       </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" ht="51" spans="1:8">
-      <c r="A35">
+      <c r="H34" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="13">
         <v>220030201001</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="13">
         <v>136221502420</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>133.29</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" ht="68" spans="1:8">
-      <c r="A36">
+      <c r="H35" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="18">
         <v>220030201003</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="18">
         <v>136050101116</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="19">
         <v>134.61</v>
       </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" ht="68" spans="1:8">
-      <c r="A37">
+      <c r="H36" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="22">
         <v>220030201008</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="22">
         <v>136050107025</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="23">
         <v>125.38</v>
       </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" ht="68" spans="1:8">
-      <c r="A38">
+      <c r="H37" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="13">
         <v>220030201010</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="13">
         <v>136221507304</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>119.56</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" ht="51" spans="1:8">
-      <c r="A39">
+      <c r="H38" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="13">
         <v>220030201011</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="13">
         <v>136221501111</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>128.13</v>
       </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" ht="68" spans="1:8">
-      <c r="A40">
+      <c r="H39" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="13">
         <v>220030602018</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="13">
         <v>136221704224</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>182.09</v>
       </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" ht="51" spans="1:8">
-      <c r="A41">
+      <c r="H40" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="13">
         <v>220060201001</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="13">
         <v>136017000718</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>109.56</v>
       </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" ht="51" spans="1:8">
-      <c r="A42">
+      <c r="H41" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="13">
         <v>220060201001</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="13">
         <v>136221502026</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>107.74</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" ht="51" spans="1:8">
-      <c r="A43">
+      <c r="H42" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="13">
         <v>220060201001</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="13">
         <v>136221504107</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>106.71</v>
       </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" ht="51" spans="1:8">
-      <c r="A44">
+      <c r="H43" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="13">
         <v>220060201004</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="13">
         <v>136215302726</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>112.31</v>
       </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" ht="51" spans="1:8">
-      <c r="A45">
+      <c r="H44" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="13">
         <v>220060201005</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="13">
         <v>136221406326</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>107.59</v>
       </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" ht="51" spans="1:8">
-      <c r="A46">
+      <c r="H45" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="13">
         <v>220060201005</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="13">
         <v>136221504528</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>103.84</v>
       </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" ht="51" spans="1:8">
-      <c r="A47">
+      <c r="H46" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="13">
         <v>220060201006</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="13">
         <v>136221408223</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <v>124.02</v>
       </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" ht="51" spans="1:8">
-      <c r="A48">
+      <c r="H47" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="13">
         <v>220060201006</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="13">
         <v>136221401724</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>124.02</v>
       </c>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" ht="68" spans="1:8">
-      <c r="A49">
+      <c r="H48" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="13">
         <v>220110201008</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="13">
         <v>136221501623</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>112.46</v>
       </c>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" ht="51" spans="1:8">
-      <c r="A50">
+      <c r="H49" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="13">
         <v>220110201018</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="13">
         <v>136018202625</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>100.68</v>
       </c>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" ht="34" spans="1:8">
-      <c r="A51">
+      <c r="H50" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="13">
         <v>220020102113</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="13">
         <v>136221700321</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" ht="34" spans="1:8">
-      <c r="A52">
+      <c r="H51" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="13">
         <v>220020102119</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="13">
         <v>136221700220</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>205.12</v>
       </c>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" ht="34" spans="1:8">
-      <c r="A53">
+      <c r="H52" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="13">
         <v>220020102125</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="13">
         <v>136210201304</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>193.28</v>
       </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" ht="34" spans="1:8">
-      <c r="A54">
+      <c r="H53" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="18">
         <v>220020702114</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="18">
         <v>136073009027</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="19">
         <v>186.68</v>
       </c>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" ht="34" spans="1:8">
-      <c r="A55">
+      <c r="H54" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="13">
         <v>220020702120</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="13">
         <v>136221704703</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>179.27</v>
       </c>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" ht="34" spans="1:8">
-      <c r="A56">
+      <c r="H55" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="13">
         <v>220050201004</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="13">
         <v>136231900419</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>121.92</v>
       </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" ht="34" spans="1:8">
-      <c r="A57">
+      <c r="H56" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="13">
         <v>220090201002</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="13">
         <v>136251503605</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>111.36</v>
       </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" ht="51" spans="1:8">
-      <c r="A58">
+      <c r="H57" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="13">
         <v>220090201011</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="13">
         <v>136050106721</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" ht="51" spans="1:8">
-      <c r="A59">
+      <c r="H58" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="13">
         <v>220090201024</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="13">
         <v>136031906008</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>116.02</v>
       </c>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" ht="51" spans="1:8">
-      <c r="A60">
+      <c r="H59" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="13">
         <v>220090201025</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="13">
         <v>136079203513</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>109.71</v>
       </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" ht="68" spans="1:8">
-      <c r="A61">
+      <c r="H60" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="11">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="13">
         <v>220100201003</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="13">
         <v>136221404316</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>122.85</v>
       </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" ht="34" spans="1:8">
-      <c r="A62">
+      <c r="H61" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="13">
         <v>220100201006</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="13">
         <v>136042204526</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>119.64</v>
       </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" ht="34" spans="1:8">
-      <c r="A63">
+      <c r="H62" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="13">
         <v>220100201016</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="13">
         <v>136221503217</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>128.32</v>
       </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" ht="34" spans="1:8">
-      <c r="A64">
+      <c r="H63" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="13">
         <v>220100201026</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="13">
         <v>136019702611</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>127.01</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" ht="34" spans="1:8">
-      <c r="A65">
+      <c r="H64" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="11">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="13">
         <v>220100602015</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="13">
         <v>136221703710</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" ht="51" spans="1:8">
-      <c r="A66">
+      <c r="H65" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="13">
         <v>220130201001</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="13">
         <v>136017601103</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="14">
         <v>109.51</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" ht="34" spans="1:8">
-      <c r="A67">
+      <c r="H66" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="13">
         <v>220130201014</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="13">
         <v>136017103830</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" ht="68" spans="1:8">
-      <c r="A68">
+      <c r="H67" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="13">
         <v>220130201016</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="13">
         <v>136017103017</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>137.15</v>
       </c>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" ht="68" spans="1:8">
-      <c r="A69">
+      <c r="H68" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="11">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="13">
         <v>220130201024</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="13">
         <v>136020403513</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="14">
         <v>126.95</v>
       </c>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" ht="51" spans="1:8">
-      <c r="A70">
+      <c r="H69" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="11">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="13">
         <v>220130201034</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="13">
         <v>136050108529</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <v>117.06</v>
       </c>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" ht="51" spans="1:8">
-      <c r="A71">
+      <c r="H70" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="11">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="13">
         <v>220130201036</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="13">
         <v>136221501217</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <v>104.16</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" ht="34" spans="1:8">
-      <c r="A72">
+      <c r="H71" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="11">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="18">
         <v>220130602030</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="18">
         <v>136013006422</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="19">
         <v>157.95</v>
       </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" ht="51" spans="1:8">
-      <c r="A73">
+      <c r="H72" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="18">
         <v>220020301039</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="18">
         <v>136221411102</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="19">
         <v>129.25</v>
       </c>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="4:7">
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:G1"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>